--- a/temp/实验薪酬代发(第一批).xlsx
+++ b/temp/实验薪酬代发(第一批).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="1680" windowWidth="24560" windowHeight="13260" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="53">
   <si>
     <t>姓名</t>
   </si>
@@ -180,13 +180,16 @@
   </si>
   <si>
     <t>小计</t>
+  </si>
+  <si>
+    <t>付款</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -198,6 +201,22 @@
       <sz val="12"/>
       <color rgb="FF333333"/>
       <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -232,15 +251,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="7">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -516,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection sqref="A1:E45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -528,7 +559,7 @@
     <col min="5" max="5" width="25.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -545,7 +576,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -560,7 +591,7 @@
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -575,7 +606,7 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -590,7 +621,7 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -605,7 +636,7 @@
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -620,7 +651,7 @@
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -635,7 +666,7 @@
       </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -650,7 +681,7 @@
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -666,8 +697,11 @@
       <c r="E9" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -682,7 +716,7 @@
       </c>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
@@ -697,7 +731,7 @@
       </c>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
@@ -712,7 +746,7 @@
       </c>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
@@ -728,8 +762,11 @@
       <c r="E13" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
@@ -744,7 +781,7 @@
       </c>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
@@ -759,7 +796,7 @@
       </c>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -774,7 +811,7 @@
       </c>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
@@ -789,7 +826,7 @@
       </c>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
@@ -804,7 +841,7 @@
       </c>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>24</v>
       </c>
@@ -819,7 +856,7 @@
       </c>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
@@ -834,7 +871,7 @@
       </c>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>26</v>
       </c>
@@ -849,7 +886,7 @@
       </c>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
@@ -864,7 +901,7 @@
       </c>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>28</v>
       </c>
@@ -880,8 +917,11 @@
       <c r="E23" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
@@ -896,7 +936,7 @@
       </c>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>30</v>
       </c>
@@ -911,7 +951,7 @@
       </c>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
@@ -926,7 +966,7 @@
       </c>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>32</v>
       </c>
@@ -941,7 +981,7 @@
       </c>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
@@ -956,7 +996,7 @@
       </c>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>34</v>
       </c>
@@ -971,7 +1011,7 @@
       </c>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
@@ -986,7 +1026,7 @@
       </c>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>36</v>
       </c>
@@ -1002,8 +1042,11 @@
       <c r="E31" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
@@ -1018,7 +1061,7 @@
       </c>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>38</v>
       </c>
@@ -1033,7 +1076,7 @@
       </c>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>39</v>
       </c>
@@ -1049,8 +1092,11 @@
       <c r="E34" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F34" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>40</v>
       </c>
@@ -1065,7 +1111,7 @@
       </c>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>41</v>
       </c>
@@ -1080,7 +1126,7 @@
       </c>
       <c r="E36" s="1"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>42</v>
       </c>
@@ -1095,7 +1141,7 @@
       </c>
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>43</v>
       </c>
@@ -1110,7 +1156,7 @@
       </c>
       <c r="E38" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>44</v>
       </c>
@@ -1125,7 +1171,7 @@
       </c>
       <c r="E39" s="1"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>45</v>
       </c>
@@ -1140,7 +1186,7 @@
       </c>
       <c r="E40" s="1"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>46</v>
       </c>
@@ -1155,7 +1201,7 @@
       </c>
       <c r="E41" s="1"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>47</v>
       </c>
@@ -1170,7 +1216,7 @@
       </c>
       <c r="E42" s="1"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>48</v>
       </c>
@@ -1185,7 +1231,7 @@
       </c>
       <c r="E43" s="1"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>49</v>
       </c>
@@ -1202,7 +1248,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>51</v>
       </c>
@@ -1219,5 +1265,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/temp/实验薪酬代发(第一批).xlsx
+++ b/temp/实验薪酬代发(第一批).xlsx
@@ -550,7 +550,7 @@
   <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -751,7 +751,7 @@
         <v>17</v>
       </c>
       <c r="B13" s="1">
-        <v>2012012297</v>
+        <v>2013012297</v>
       </c>
       <c r="C13" s="1">
         <v>90</v>
